--- a/ANOVA详细结果_修正版.xlsx
+++ b/ANOVA详细结果_修正版.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>变量</t>
+          <t>F统计量</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>F统计量</t>
+          <t>p值</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>p值</t>
+          <t>效应量(η²)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>效应量(η²)</t>
+          <t>效应大小</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>效应大小</t>
+          <t>显著性</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>显著性</t>
+          <t>各年级均值</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>各年级均值</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>各年级样本量</t>
         </is>
@@ -483,656 +478,576 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>描述性统计</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>单词数量-DESWC-03</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>25.11148059067549</v>
+      </c>
       <c r="C2" t="n">
-        <v>24.85945645168091</v>
+        <v>8.39421140243922e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.059627999511642e-10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1446499189799907</v>
+        <v>0.1446418203752373</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>大效应</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>大效应</t>
+          <t>显著</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>显著</t>
+          <t>{'1年级': 197.53727272727272, '2年级': 181.86, '3年级': 216.33}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(197.50515463917526), '2年级': np.float64(181.86), '3年级': np.float64(216.33)}</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>{'1年级': 97, '2年级': 100, '3年级': 100}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>描述性统计</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>句子数量-DESSC-02</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>5.033488740757149</v>
+      </c>
       <c r="C3" t="n">
-        <v>5.078819109372577</v>
+        <v>0.007082967836103602</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006784918980093878</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03339596624379346</v>
+        <v>0.03278430511832026</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>中等效应</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>中等效应</t>
+          <t>显著</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>显著</t>
+          <t>{'1年级': 14.658383838383838, '2年级': 13.39, '3年级': 13.79}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(14.68041237113402), '2年级': np.float64(13.39), '3年级': np.float64(13.79)}</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>{'1年级': 97, '2年级': 100, '3年级': 100}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>微观叙事-词法</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>多样性-LDVOCDa（51）</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>2.250962081281215</v>
+      </c>
       <c r="C4" t="n">
-        <v>2.326392628087445</v>
+        <v>0.1070914102882187</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0997663526642855</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01834312700913509</v>
+        <v>0.01493165980637361</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>中等效应</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>中等效应</t>
+          <t>不显著</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>不显著</t>
+          <t>{'1年级': 86.13763383548452, '2年级': 83.26850384198096, '3年级': 86.94151693574882}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(86.22271891348315), '2年级': np.float64(82.723325251375), '3年级': np.float64(87.24716848313253)}</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>{'1年级': 89, '2年级': 80, '3年级': 83}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>微观叙事-词法</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>密度-WRDFRQC（94）</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>27.94688088815556</v>
+      </c>
       <c r="C5" t="n">
-        <v>28.02526168799154</v>
+        <v>7.571841373515752e-12</v>
       </c>
       <c r="D5" t="n">
-        <v>1.053253217494164e-11</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1837417708898648</v>
+        <v>0.1583869363260132</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>大效应</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>大效应</t>
+          <t>显著</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>显著</t>
+          <t>{'1年级': 2.3320131310761907, '2年级': 2.2633720619376185, '3年级': 2.2152457587004757}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(2.339651681101124), '2年级': np.float64(2.2616624981125), '3年级': np.float64(2.203987957554217)}</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>{'1年级': 89, '2年级': 80, '3年级': 83}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>微观叙事-词法</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>复杂度-K1</t>
-        </is>
+          <t>复杂度-K</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>28.46711498862144</v>
       </c>
       <c r="C6" t="n">
-        <v>28.61334666984956</v>
+        <v>4.890256021440817e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>6.523184035784381e-12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1868768940930189</v>
+        <v>0.1608610446661336</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>大效应</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>大效应</t>
+          <t>显著</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>显著</t>
+          <t>{'1年级': 1.786247204909675, '2年级': -0.09110887449126061, '3年级': -1.6951383304184338}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(88.05357303370785), '2年级': np.float64(86.154775), '3年级': np.float64(84.51234939759037)}</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>{'1年级': 89, '2年级': 80, '3年级': 83}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>微观叙事-句法</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>短语长度-SYNLE（69）</t>
-        </is>
+          <t>句子长度-DESSL（06）</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>17.85927581745458</v>
       </c>
       <c r="C7" t="n">
-        <v>14.10202193247005</v>
+        <v>4.741281328307504e-08</v>
       </c>
       <c r="D7" t="n">
-        <v>1.517529189199939e-06</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.09652174381945368</v>
+        <v>0.1073536520864126</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>大效应</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>大效应</t>
+          <t>显著</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>显著</t>
+          <t>{'1年级': 13.818522209313372, '2年级': 13.51369832574506, '3年级': 15.41448727481798}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(3.4381630395217395), '2年级': np.float64(3.53126136415909), '3年级': np.float64(4.202666674505748)}</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>{'1年级': 92, '2年级': 88, '3年级': 87}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>微观叙事-句法</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>短语长度-SYNNP（70）</t>
-        </is>
+          <t>短语长度-PhraseLength</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>16.02710921722389</v>
       </c>
       <c r="C8" t="n">
-        <v>21.33669103796957</v>
+        <v>2.455356185159714e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>2.573211157744884e-09</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1391492857550065</v>
+        <v>0.09741318189735794</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>大效应</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>大效应</t>
+          <t>显著</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>显著</t>
+          <t>{'1年级': 2.048107057717397, '2年级': 2.1297530907085958, '3年级': 2.4398421001638955}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(0.6306086947282609), '2年级': np.float64(0.7074772739431818), '3年级': np.float64(0.746931032908046)}</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>{'1年级': 92, '2年级': 88, '3年级': 87}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>微观叙事-句法</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>短语密度-DRNP（76）</t>
-        </is>
+          <t>短语密度-PhraseDensity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.317299900040076</v>
       </c>
       <c r="C9" t="n">
-        <v>4.950197557596007</v>
+        <v>0.2694179105831809</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007753314349618655</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.03614596872351453</v>
+        <v>0.008792708858850352</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>小效应</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>中等效应</t>
+          <t>不显著</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>显著</t>
+          <t>{'1年级': 223.20074434617862, '2年级': 223.5870272827513, '3年级': 221.17049845151942}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(332.1424467630435), '2年级': np.float64(344.4250786477273), '3年级': np.float64(336.86143721379307)}</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>{'1年级': 92, '2年级': 88, '3年级': 87}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>宏观叙事-语篇连贯性</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>局部连贯-CRFAO1（29）</t>
-        </is>
+          <t>句子结构-SentenceStructure</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.876055391857964</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4713506362514076</v>
+        <v>0.1550040842459358</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6246992757666845</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.003668916329726817</v>
+        <v>0.01247575877003322</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>中等效应</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>小效应</t>
+          <t>不显著</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>不显著</t>
+          <t>{'1年级': 9.35909403177603, '2年级': 9.514621061717376, '3年级': 10.327311111607717}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(0.5903295468636364), '2年级': np.float64(0.5765393243033708), '3年级': np.float64(0.6007195123292682)}</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>{'1年级': 88, '2年级': 89, '3年级': 82}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>宏观叙事-语篇连贯性</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>局部连贯-CRFSO1（30）</t>
-        </is>
+          <t>句法相似-SYNSTRUT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.322672364638065</v>
       </c>
       <c r="C11" t="n">
-        <v>1.642854561599535</v>
+        <v>0.00204619155418521</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1954597004807081</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.01267215665032226</v>
+        <v>0.04083815547213227</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>中等效应</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>中等效应</t>
+          <t>显著</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>不显著</t>
+          <t>{'1年级': 0.13125080498664796, '2年级': 0.1260687079974719, '3年级': 0.1175231835776779}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(0.1140113635909091), '2年级': np.float64(0.13084269648314606), '3年级': np.float64(0.13892682957317073)}</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>{'1年级': 88, '2年级': 89, '3年级': 82}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>宏观叙事-语篇连贯性</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>局部连贯-LSASS1(40)</t>
-        </is>
+          <t>局部连贯-LocalCoherence</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5366612889184585</v>
       </c>
       <c r="C12" t="n">
-        <v>1.307131125936874</v>
+        <v>0.5852630328804167</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2723950077452836</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0101087319357801</v>
+        <v>0.003600867627315591</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>小效应</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>中等效应</t>
+          <t>不显著</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>不显著</t>
+          <t>{'1年级': 0.2718082890022007, '2年级': 0.2748398194978507, '3年级': 0.28189243280496784}</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(0.10929545551136365), '2年级': np.float64(0.11664044994382021), '3年级': np.float64(0.10979268368292686)}</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>{'1年级': 88, '2年级': 89, '3年级': 82}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>宏观叙事-情境模型</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>因果衔接-SMCAUSr-64</t>
-        </is>
+          <t>整体连贯-GlobalCoherence</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.795303986225103</v>
       </c>
       <c r="C13" t="n">
-        <v>6.04662881375245</v>
+        <v>0.02357389363882571</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002692054405618621</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.04212309870124342</v>
+        <v>0.02492068952151266</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>中等效应</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>中等效应</t>
+          <t>显著</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>显著</t>
+          <t>{'1年级': -0.0077223475684733535, '2年级': -0.023755392483031747, '3年级': 0.031477740051505054}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(0.31190816343877553), '2年级': np.float64(0.23019149087234042), '3年级': np.float64(0.22625581574418602)}</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>{'1年级': 98, '2年级': 94, '3年级': 86}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>宏观叙事-情境模型</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>意图衔接-SMINTEr-65</t>
-        </is>
+          <t>因果衔接-SMCAUSr-64</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6.193378832611744</v>
       </c>
       <c r="C14" t="n">
-        <v>2.586968947279677</v>
+        <v>0.002316472421727833</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07707826710295151</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.01846687787393887</v>
+        <v>0.04003648300496022</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>中等效应</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>中等效应</t>
+          <t>显著</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>不显著</t>
+          <t>{'1年级': 0.31082561170330936, '2年级': 0.23184683601992806, '3年级': 0.2306692822731655}</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(0.31607142885714284), '2年级': np.float64(0.36584042759574475), '3年级': np.float64(0.38141860508139536)}</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>{'1年级': 98, '2年级': 94, '3年级': 86}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>宏观叙事-情境模型</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>时体衔接-SMTEMP-68</t>
-        </is>
+          <t>意图衔接-SMINTEr-65</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.621610278061572</v>
       </c>
       <c r="C15" t="n">
-        <v>2.507687280845866</v>
+        <v>0.07436735598707127</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0833176966731146</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.01791106852451344</v>
+        <v>0.01734768623255032</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>中等效应</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>中等效应</t>
+          <t>不显著</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>不显著</t>
+          <t>{'1年级': 0.3168123024569065, '2年级': 0.36507690847071944, '3年级': 0.37745611560834524}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(0.854040816734694), '2年级': np.float64(0.8797978720319152), '3年级': np.float64(0.8753139521860466)}</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>{'1年级': 98, '2年级': 94, '3年级': 86}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>宏观叙事-段落长度</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>段落平均长度-DESPL-04</t>
-        </is>
+          <t>时体衔接-SMTEMP-68</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.593856383453911</v>
       </c>
       <c r="C16" t="n">
-        <v>5.509996714999867</v>
+        <v>0.07642363563863934</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004478048396165299</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.03636721559280684</v>
+        <v>0.01716718631412197</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>中等效应</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>中等效应</t>
+          <t>不显著</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>显著</t>
+          <t>{'1年级': 0.8543466190977698, '2年级': 0.8791698558033094, '3年级': 0.8744763297643887}</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(7.316326530612245), '2年级': np.float64(6.634020618556701), '3年级': np.float64(6.895)}</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>{'1年级': 98, '2年级': 97, '3年级': 100}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>宏观叙事-段落长度</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>段落平均长度标准差-DESPLd-05</t>
-        </is>
+          <t>段落平均长度-DESPL-04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5.465415913385376</v>
       </c>
       <c r="C17" t="n">
-        <v>14.32000174801189</v>
+        <v>0.004666982911733119</v>
       </c>
       <c r="D17" t="n">
-        <v>1.167646661284552e-06</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.08932136721480211</v>
+        <v>0.03549768550919249</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>中等效应</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>大效应</t>
+          <t>显著</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>显著</t>
+          <t>{'1年级': 7.308983050847457, '2年级': 6.643474576271186, '3年级': 6.895}</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>{'1年级': np.float64(1.7315612543571433), '2年级': np.float64(2.3837010588865977), '3年级': np.float64(1.4211200306900003)}</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>{'1年级': 98, '2年级': 97, '3年级': 100}</t>
+          <t>{'1年级': 100, '2年级': 100, '3年级': 100}</t>
         </is>
       </c>
     </row>
